--- a/data/trans_dic/P2A_senso_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,62</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,71</t>
+          <t>0,47; 2,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,25</t>
+          <t>0,0; 0,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,49</t>
+          <t>0,43; 2,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +759,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,49</t>
+          <t>0,09; 5,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,63</t>
+          <t>0,38; 1,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,69</t>
+          <t>0,44; 1,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,74</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,7</t>
+          <t>0,11; 3,07</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,69</t>
+          <t>0,26; 1,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,52 +874,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,05</t>
+          <t>1,0; 5,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,51</t>
+          <t>0,16; 1,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,16</t>
+          <t>1,25; 4,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,74</t>
+          <t>0,3; 1,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,13</t>
+          <t>0,57; 3,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,23</t>
+          <t>0,36; 1,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,44</t>
+          <t>0,87; 2,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,21</t>
+          <t>0,24; 1,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,18</t>
+          <t>1,01; 3,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,21</t>
+          <t>0,26; 2,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,32</t>
+          <t>0,39; 2,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,96</t>
+          <t>0,28; 1,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,84</t>
+          <t>0,47; 2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,54</t>
+          <t>0,29; 1,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,98</t>
+          <t>0,84; 3,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,57</t>
+          <t>0,28; 1,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,49</t>
+          <t>0,81; 2,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,46</t>
+          <t>0,39; 1,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,19</t>
+          <t>0,77; 2,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,43</t>
+          <t>0,37; 1,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,08</t>
+          <t>0,88; 2,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,42</t>
+          <t>0,4; 2,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,47</t>
+          <t>1,3; 4,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,25</t>
+          <t>1,02; 3,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,85</t>
+          <t>1,31; 3,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,67</t>
+          <t>0,98; 3,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,99</t>
+          <t>1,36; 4,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,89</t>
+          <t>0,45; 2,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,46</t>
+          <t>1,64; 3,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,56</t>
+          <t>1,0; 2,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,56</t>
+          <t>1,6; 3,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,26</t>
+          <t>0,86; 2,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,26</t>
+          <t>1,8; 3,2</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,39</t>
+          <t>1,81; 5,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,49</t>
+          <t>0,91; 3,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,05</t>
+          <t>0,41; 3,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,59</t>
+          <t>2,31; 5,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,01</t>
+          <t>1,0; 3,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,47</t>
+          <t>1,36; 4,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,03</t>
+          <t>0,19; 1,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,23</t>
+          <t>2,58; 5,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,97</t>
+          <t>1,71; 4,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,45</t>
+          <t>1,43; 3,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,93</t>
+          <t>0,4; 2,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,93</t>
+          <t>2,83; 4,77</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,59</t>
+          <t>2,42; 5,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,64</t>
+          <t>1,65; 4,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,51</t>
+          <t>0,53; 2,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,89</t>
+          <t>2,42; 4,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,71</t>
+          <t>1,89; 4,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,59</t>
+          <t>2,05; 4,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,8</t>
+          <t>1,35; 3,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 41,67</t>
+          <t>5,49; 37,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,45</t>
+          <t>2,39; 4,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,27</t>
+          <t>2,13; 4,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,01</t>
+          <t>1,21; 2,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 31,36</t>
+          <t>4,6; 29,3</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,0</t>
+          <t>1,15; 2,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,18</t>
+          <t>1,25; 2,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,45</t>
+          <t>0,67; 1,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,02</t>
+          <t>1,92; 3,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,08</t>
+          <t>1,23; 2,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,74</t>
+          <t>1,72; 2,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,52</t>
+          <t>0,74; 1,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 15,67</t>
+          <t>2,95; 15,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,9</t>
+          <t>1,29; 1,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,31</t>
+          <t>1,6; 2,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,32</t>
+          <t>0,78; 1,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,1</t>
+          <t>2,67; 9,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_senso_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,24</t>
+          <t>0,0; 0,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,05</t>
+          <t>0,05; 4,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,07</t>
+          <t>0,07; 2,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,85</t>
+          <t>0,99; 5,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,65</t>
+          <t>0,31; 1,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,07</t>
+          <t>0,3; 2,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,32</t>
+          <t>0,39; 1,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,31</t>
+          <t>0,83; 3,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>1,3%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,47%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,57</t>
+          <t>0,52; 2,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,67</t>
+          <t>0,43; 1,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,47</t>
+          <t>0,68; 2,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,51</t>
+          <t>0,46; 1,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,19</t>
+          <t>0,8; 2,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,29 +1091,29 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>2,34%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
           <t>1,59%</t>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,69</t>
+          <t>0,59; 2,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,57</t>
+          <t>1,51; 3,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,2</t>
+          <t>1,24; 2,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,53</t>
+          <t>2,35; 5,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,01</t>
+          <t>2,51; 4,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,77</t>
+          <t>2,82; 4,78</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>24,06%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,61</t>
+          <t>2,51; 7,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,85</t>
+          <t>0,64; 4,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,48</t>
+          <t>0,28; 3,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,96</t>
+          <t>1,99; 5,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,67</t>
+          <t>0,56; 3,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,57</t>
+          <t>1,67; 5,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,91</t>
+          <t>0,72; 3,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 37,35</t>
+          <t>3,87; 76,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,37</t>
+          <t>1,97; 4,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,04</t>
+          <t>1,49; 4,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,82</t>
+          <t>0,68; 2,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,6; 29,3</t>
+          <t>3,55; 65,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,86%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,84; 5,47</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 7,4</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 3,99</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 6,03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 7,34</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 5,2</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 5,64</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 9,44</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 5,79</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 5,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 4,17</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 7,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,15; 2,0</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,25; 2,2</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,67; 1,48</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 3,02</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 2,11</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 2,82</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 2,18</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,72; 2,72</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,74; 1,44</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 15,65</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 1,9</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 24,52</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 1,92</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>1,6; 2,33</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0,78; 1,31</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 9,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 14,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2A_senso_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,74</t>
+          <t>0,46; 2,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +745,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,63</t>
+          <t>0,42; 2,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,76</t>
+          <t>0,05; 4,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,56</t>
+          <t>0,4; 1,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,7</t>
+          <t>0,45; 1,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,53</t>
+          <t>0,05; 2,28</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,68</t>
+          <t>0,26; 1,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,5</t>
+          <t>0,26; 1,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,66</t>
+          <t>1,01; 5,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,82</t>
+          <t>0,31; 1,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,04</t>
+          <t>1,34; 4,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,82</t>
+          <t>0,32; 1,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,08</t>
+          <t>0,23; 2,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,42</t>
+          <t>0,39; 1,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,4</t>
+          <t>0,9; 2,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,18</t>
+          <t>0,25; 1,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,11</t>
+          <t>0,78; 3,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,02</t>
+          <t>0,26; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,32</t>
+          <t>0,42; 2,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,84</t>
+          <t>0,29; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,74</t>
+          <t>0,51; 2,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,96</t>
+          <t>0,31; 1,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,01</t>
+          <t>0,82; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,56</t>
+          <t>0,28; 1,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,27</t>
+          <t>0,68; 2,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,62</t>
+          <t>0,43; 1,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,14</t>
+          <t>0,78; 2,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,36</t>
+          <t>0,39; 1,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,09</t>
+          <t>0,76; 2,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,46</t>
+          <t>0,4; 2,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,14</t>
+          <t>1,25; 4,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,28</t>
+          <t>1,07; 3,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,97</t>
+          <t>0,65; 3,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,45</t>
+          <t>1,03; 3,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,07</t>
+          <t>1,35; 4,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,04</t>
+          <t>0,46; 2,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,38</t>
+          <t>1,53; 3,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,58</t>
+          <t>0,87; 2,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,63</t>
+          <t>1,64; 3,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,22</t>
+          <t>0,82; 2,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,85</t>
+          <t>1,16; 2,72</t>
         </is>
       </c>
     </row>
@@ -1284,47 +1285,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,45</t>
+          <t>1,95; 5,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,48</t>
+          <t>0,96; 3,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,16</t>
+          <t>0,36; 2,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,65</t>
+          <t>2,3; 5,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,91</t>
+          <t>0,95; 4,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,39</t>
+          <t>1,42; 4,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,84</t>
+          <t>0,19; 1,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,97</t>
+          <t>2,57; 4,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,21</t>
+          <t>1,73; 3,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,2</t>
+          <t>0,42; 1,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,78</t>
+          <t>2,77; 4,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,29</t>
+          <t>2,66; 7,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,78</t>
+          <t>0,61; 4,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,41</t>
+          <t>0,28; 3,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,16</t>
+          <t>2,0; 5,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,48</t>
+          <t>0,79; 3,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,94</t>
+          <t>1,73; 5,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,55</t>
+          <t>0,53; 3,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 76,6</t>
+          <t>3,85; 73,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,56</t>
+          <t>1,91; 4,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,27</t>
+          <t>1,52; 4,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,42</t>
+          <t>0,67; 2,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 65,06</t>
+          <t>3,52; 58,13</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,47</t>
+          <t>0,85; 5,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 7,4</t>
+          <t>2,15; 7,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,99</t>
+          <t>0,36; 3,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,03</t>
+          <t>1,96; 5,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,34</t>
+          <t>2,67; 7,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,2</t>
+          <t>1,6; 5,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,64</t>
+          <t>1,56; 5,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,44</t>
+          <t>5,58; 9,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,79</t>
+          <t>2,14; 5,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,06</t>
+          <t>2,24; 5,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,17</t>
+          <t>1,26; 4,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,41</t>
+          <t>4,61; 7,41</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,0</t>
+          <t>1,16; 2,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,2</t>
+          <t>1,27; 2,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,48</t>
+          <t>0,69; 1,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,82</t>
+          <t>1,63; 2,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,18</t>
+          <t>1,26; 2,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,72</t>
+          <t>1,76; 2,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,44</t>
+          <t>0,77; 1,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,76; 24,52</t>
+          <t>2,79; 25,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,92</t>
+          <t>1,3; 1,92</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,33</t>
+          <t>1,61; 2,32</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,31</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 14,47</t>
+          <t>2,46; 15,39</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2300</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6067</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5711</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8012</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7977</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8433</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2081; 12225</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5029</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 871</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1977; 11827</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6290</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4485</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>168; 15631</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3805; 15491</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3959; 14927</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6611</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>329; 16296</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5361</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2180</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10494</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5097</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14501</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4532</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4829</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10458</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19188</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6711</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15323</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1893; 13006</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1817; 10526</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7409</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4269; 24200</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1948; 11430</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8147; 25212</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1824; 10290</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1180; 10607</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5275; 17680</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11736; 30688</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2828; 13430</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7296; 28027</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5382</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5499</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7186</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6341</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11569</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7687</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11724</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18849</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10189</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14873</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1670; 12959</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2885; 14625</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1941; 12370</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2727; 14772</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2145; 12916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5805; 21753</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1845; 9555</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4044; 12796</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5711; 21648</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10932; 29493</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5135; 18699</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8611; 23777</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6179</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15071</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12522</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10292</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14803</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16683</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16471</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29874</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>18569</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>31873</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2084; 12680</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7653; 25690</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6933; 21440</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5759; 27358</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5332; 19660</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8345; 25295</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2988; 14061</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10940; 23580</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9041; 26504</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20216; 43838</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10669; 28785</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18515; 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12754</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8334</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5744</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21259</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8345</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11859</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>19871</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21099</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20193</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9045</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>41130</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7559; 21883</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4130; 15825</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1706; 14246</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12882; 31675</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3841; 16305</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6374; 20594</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>968; 9673</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14075; 27081</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13677; 30920</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>12587; 30220</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4121; 18221</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>30764; 53293</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13493</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5950</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12049</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5561</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11566</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5977</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>222866</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19055</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17517</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9606</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>234915</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7778; 21407</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1892; 14068</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>935; 10719</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7377; 19270</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2700; 11904</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6122; 20070</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2020; 11881</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23424; 446147</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12152; 28141</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10107; 28874</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4783; 18064</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>34401; 567629</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5244</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>10303</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>10417</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>14672</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>11690</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12286</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>31075</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>19915</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>21993</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>16156</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>41491</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1778; 11603</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5381; 18487</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>915; 9430</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5538; 16804</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8927; 24773</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6226; 20062</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6234; 23095</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>23740; 39864</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>11638; 29690</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14327; 33984</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>8280; 26617</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>32653; 52494</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>50714</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>57692</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>34452</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>76755</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>56019</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>77898</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>37722</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>307454</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>106733</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>135590</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>72174</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>384209</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>38003; 66259</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>43387; 75044</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>23416; 50009</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>56418; 95588</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>42733; 73473</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>62677; 98308</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>27272; 52016</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>103513; 941132</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>86200; 127504</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>112471; 161895</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>54633; 90956</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>176341; 1103892</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>